--- a/hospitalCosts/hospital1/Jun97HospitalCostsAndAdjustments.xlsx
+++ b/hospitalCosts/hospital1/Jun97HospitalCostsAndAdjustments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82cfe7acc6d68563/Documents/github/Clinical-Costing/hospitalCosts/hospital1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="747" documentId="8_{A4628203-D8AB-44BB-9C17-2573612AD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D465C2-C66F-433A-B65F-A148051BEC2F}"/>
+  <xr:revisionPtr revIDLastSave="751" documentId="8_{A4628203-D8AB-44BB-9C17-2573612AD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE359FC-ECD1-4F9C-8C3A-56D2C741983C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="8" activeTab="10" xr2:uid="{8A76FE4D-E612-4610-A6C4-F7948AD32F5A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="7" activeTab="10" xr2:uid="{8A76FE4D-E612-4610-A6C4-F7948AD32F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="gl attributes run adjustments" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'general ledger run adjustments'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'general ledger run adjustments'!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'itemized costs'!$A$1:$B$6</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">'pathology tests'!$A$1:$J$629</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7804" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7794" uniqueCount="331">
   <si>
     <t>This is an example of a set of costs prepared for the Clinical Costing system.</t>
   </si>
@@ -1019,12 +1019,6 @@
     <t>rmosurgPay</t>
   </si>
   <si>
-    <t>obstet1</t>
-  </si>
-  <si>
-    <t>paed1</t>
-  </si>
-  <si>
     <t>wages</t>
   </si>
   <si>
@@ -1859,7 +1853,7 @@
   <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7968,11 +7962,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4128DA21-DD74-4D2E-93B5-10420310874A}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8020,7 +8014,7 @@
         <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -8029,21 +8023,21 @@
         <v>307</v>
       </c>
       <c r="G2">
-        <v>4046.4858333333336</v>
+        <v>2346.48583333333</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="C3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
         <v>319</v>
-      </c>
-      <c r="D3" t="s">
-        <v>321</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -8052,21 +8046,21 @@
         <v>307</v>
       </c>
       <c r="G3">
-        <v>11710.416666666666</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8075,21 +8069,21 @@
         <v>307</v>
       </c>
       <c r="G4">
-        <v>9188.2224999999999</v>
+        <v>2607.1999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -8098,7 +8092,7 @@
         <v>307</v>
       </c>
       <c r="G5">
-        <v>6675</v>
+        <v>24423.29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8112,7 +8106,7 @@
         <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -8121,7 +8115,7 @@
         <v>307</v>
       </c>
       <c r="G6">
-        <v>2607.1999999999998</v>
+        <v>7821.62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8135,7 +8129,7 @@
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -8144,7 +8138,7 @@
         <v>307</v>
       </c>
       <c r="G7">
-        <v>24423.29</v>
+        <v>73269.87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8158,7 +8152,7 @@
         <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -8167,7 +8161,7 @@
         <v>307</v>
       </c>
       <c r="G8">
-        <v>7821.62</v>
+        <v>10416.58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8181,7 +8175,7 @@
         <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -8190,7 +8184,7 @@
         <v>307</v>
       </c>
       <c r="G9">
-        <v>73269.87</v>
+        <v>19249.52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8204,7 +8198,7 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -8213,7 +8207,7 @@
         <v>307</v>
       </c>
       <c r="G10">
-        <v>10416.58</v>
+        <v>9624.76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8227,7 +8221,7 @@
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -8236,7 +8230,7 @@
         <v>307</v>
       </c>
       <c r="G11">
-        <v>19249.52</v>
+        <v>7539.92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8250,7 +8244,7 @@
         <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -8259,7 +8253,7 @@
         <v>307</v>
       </c>
       <c r="G12">
-        <v>9624.76</v>
+        <v>10427.08</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8273,7 +8267,7 @@
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -8282,7 +8276,7 @@
         <v>307</v>
       </c>
       <c r="G13">
-        <v>7539.92</v>
+        <v>9624.76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8296,7 +8290,7 @@
         <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -8305,21 +8299,21 @@
         <v>307</v>
       </c>
       <c r="G14">
-        <v>10427.08</v>
+        <v>37489.42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="D15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -8328,21 +8322,21 @@
         <v>307</v>
       </c>
       <c r="G15">
-        <v>9624.76</v>
+        <v>3666.6666666666665</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -8351,57 +8345,11 @@
         <v>307</v>
       </c>
       <c r="G16">
-        <v>37489.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>306</v>
-      </c>
-      <c r="D17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>307</v>
-      </c>
-      <c r="G17">
-        <v>3666.6666666666665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>307</v>
-      </c>
-      <c r="G18">
         <v>6488.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18" xr:uid="{4128DA21-DD74-4D2E-93B5-10420310874A}"/>
+  <autoFilter ref="A1:G16" xr:uid="{4128DA21-DD74-4D2E-93B5-10420310874A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8430,10 +8378,10 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -8532,7 +8480,7 @@
   <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -10041,7 +9989,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B137" t="s">
         <v>50</v>
@@ -10052,7 +10000,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B138" t="s">
         <v>88</v>
@@ -10063,7 +10011,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B139" t="s">
         <v>89</v>
@@ -10074,7 +10022,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B140" t="s">
         <v>92</v>
@@ -10085,7 +10033,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B141" t="s">
         <v>95</v>
@@ -12803,10 +12751,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -12814,7 +12762,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -12822,7 +12770,7 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -12830,7 +12778,7 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -12838,7 +12786,7 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -12846,7 +12794,7 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -33095,7 +33043,7 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J2" s="3">
         <v>119</v>
@@ -33127,7 +33075,7 @@
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J3" s="3">
         <v>119</v>
@@ -33159,7 +33107,7 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J4" s="3">
         <v>437.15</v>
@@ -33191,7 +33139,7 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J5" s="3">
         <v>227.5</v>
@@ -33223,7 +33171,7 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J6" s="3">
         <v>138.94999999999999</v>
@@ -33255,7 +33203,7 @@
         <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J7" s="3">
         <v>1164.8</v>
@@ -33287,7 +33235,7 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J8" s="3">
         <v>782.9</v>
@@ -33319,7 +33267,7 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J9" s="3">
         <v>256.89999999999998</v>
@@ -33351,7 +33299,7 @@
         <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J10" s="3">
         <v>1791.6</v>
@@ -33383,7 +33331,7 @@
         <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J11" s="3">
         <v>113.75</v>
@@ -33415,7 +33363,7 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J12" s="3">
         <v>57.75</v>
